--- a/data/trans_dic/P25D_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00427854472483942</v>
+        <v>0.004249611751137576</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002163237961254474</v>
+        <v>0.002124944321007851</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003870551505454791</v>
+        <v>0.004297009788253658</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0269058652308413</v>
+        <v>0.02819350463551383</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01278317521408693</v>
+        <v>0.01300053885488465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01630775758355955</v>
+        <v>0.01627944885562022</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004914226401991109</v>
+        <v>0.004587612212035946</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0009398763775496894</v>
+        <v>0.0007745200565263772</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003571683680791763</v>
+        <v>0.003298646951885384</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03058368352261169</v>
+        <v>0.02780652515345278</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.006174052949723763</v>
+        <v>0.006204322077351327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.016355513652476</v>
+        <v>0.01487485903019282</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.007905552035609845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.008973830575528783</v>
+        <v>0.008973830575528785</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004545513155830274</v>
+        <v>0.004680604349016326</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003616920865507632</v>
+        <v>0.003716124364770342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00516192595938979</v>
+        <v>0.005445729504504123</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02079817442413754</v>
+        <v>0.01932409143011271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01517459810820596</v>
+        <v>0.01484378251622613</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01442650216470278</v>
+        <v>0.01488463524130547</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006944121472525301</v>
+        <v>0.006092919867548005</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004797890798411293</v>
+        <v>0.005165282263773086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007350027926512541</v>
+        <v>0.007445419529541731</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02660709656646031</v>
+        <v>0.02644713828843692</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.021798704427983</v>
+        <v>0.02272315207324222</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02047677864652487</v>
+        <v>0.01998886477737325</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.01199171992661005</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.006834013244469193</v>
+        <v>0.006834013244469194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.009335566694282598</v>
+        <v>0.0093355666942826</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008078452562357018</v>
+        <v>0.008335816014197847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004687515185834783</v>
+        <v>0.004439623357556673</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006935629470676463</v>
+        <v>0.006991520043398683</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01775402114470854</v>
+        <v>0.01796778708005579</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01023311856451648</v>
+        <v>0.01010337933021804</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01252609416238422</v>
+        <v>0.01245403834386931</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1349</v>
+        <v>1325</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4340</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13389</v>
+        <v>14030</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7971</v>
+        <v>8107</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18285</v>
+        <v>18253</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4715</v>
+        <v>4402</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1048</v>
+        <v>864</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7410</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29344</v>
+        <v>26679</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6885</v>
+        <v>6919</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33932</v>
+        <v>30860</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4751</v>
+        <v>4892</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3789</v>
+        <v>3893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10803</v>
+        <v>11397</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21738</v>
+        <v>20198</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15898</v>
+        <v>15551</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30192</v>
+        <v>31151</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6746</v>
+        <v>5919</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4328</v>
+        <v>4660</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13772</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25850</v>
+        <v>25694</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19666</v>
+        <v>20500</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38367</v>
+        <v>37453</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28063</v>
+        <v>28957</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17290</v>
+        <v>16376</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>49676</v>
+        <v>50076</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61675</v>
+        <v>62417</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37745</v>
+        <v>37267</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>89717</v>
+        <v>89200</v>
       </c>
     </row>
     <row r="24">
